--- a/results and graphs/all comparison (DK mix).xlsx
+++ b/results and graphs/all comparison (DK mix).xlsx
@@ -11074,13 +11074,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
+  <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AF106"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
+      <selection pane="topLeft" activeCell="C56" activeCellId="0" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11183,7 +11183,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>30</v>
       </c>
@@ -11281,7 +11281,7 @@
         <v>109.934322221447</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>23</v>
       </c>
@@ -11379,7 +11379,7 @@
         <v>89.2291444364807</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>26</v>
       </c>
@@ -11477,7 +11477,7 @@
         <v>108.524705014897</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>40</v>
       </c>
@@ -11575,7 +11575,7 @@
         <v>388.807435191572</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>80</v>
       </c>
@@ -11673,7 +11673,7 @@
         <v>378.521724975625</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>25</v>
       </c>
@@ -11771,7 +11771,7 @@
         <v>386.224011742782</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>66</v>
       </c>
@@ -11869,7 +11869,7 @@
         <v>373.277021956434</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>84</v>
       </c>
@@ -11967,7 +11967,7 @@
         <v>378.618684222113</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>51</v>
       </c>
@@ -12065,7 +12065,7 @@
         <v>358.821627199393</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>70</v>
       </c>
@@ -12163,7 +12163,7 @@
         <v>197.649013247391</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>75</v>
       </c>
@@ -12261,7 +12261,7 @@
         <v>192.015860961067</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>20</v>
       </c>
@@ -12359,7 +12359,7 @@
         <v>191.557244266642</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>48</v>
       </c>
@@ -12457,7 +12457,7 @@
         <v>178.773859773759</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>54</v>
       </c>
@@ -12555,7 +12555,7 @@
         <v>182.010092956966</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>101</v>
       </c>
@@ -12653,7 +12653,7 @@
         <v>159.701191706667</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>32</v>
       </c>
@@ -12751,7 +12751,7 @@
         <v>154.668303729725</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>6</v>
       </c>
@@ -12849,7 +12849,7 @@
         <v>119.738893753392</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>1</v>
       </c>
@@ -14123,7 +14123,7 @@
         <v>165.570090354632</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
         <v>34</v>
       </c>
@@ -14221,7 +14221,7 @@
         <v>137.310749785668</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
         <v>10</v>
       </c>
@@ -14319,7 +14319,7 @@
         <v>102.714576539981</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
         <v>3</v>
       </c>
@@ -14417,7 +14417,7 @@
         <v>108.00219902888</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
         <v>95</v>
       </c>
@@ -14515,7 +14515,7 @@
         <v>417.116636758569</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
         <v>44</v>
       </c>
@@ -14613,7 +14613,7 @@
         <v>406.744010208764</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
         <v>14</v>
       </c>
@@ -14711,7 +14711,7 @@
         <v>414.761695200488</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
         <v>100</v>
       </c>
@@ -14809,7 +14809,7 @@
         <v>401.177314700183</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
         <v>63</v>
       </c>
@@ -14907,7 +14907,7 @@
         <v>407.012522662578</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
         <v>35</v>
       </c>
@@ -15005,7 +15005,7 @@
         <v>386.77737881135</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
         <v>93</v>
       </c>
@@ -15103,7 +15103,7 @@
         <v>181.869580730392</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
         <v>36</v>
       </c>
@@ -15201,7 +15201,7 @@
         <v>176.487869253123</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
         <v>9</v>
       </c>
@@ -15299,7 +15299,7 @@
         <v>176.687187378259</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
         <v>62</v>
       </c>
@@ -15397,7 +15397,7 @@
         <v>164.354788568058</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
         <v>37</v>
       </c>
@@ -15495,7 +15495,7 @@
         <v>168.561260101892</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
         <v>38</v>
       </c>
@@ -15593,7 +15593,7 @@
         <v>148.377461218815</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
         <v>28</v>
       </c>
@@ -15691,7 +15691,7 @@
         <v>243.471770486174</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
         <v>11</v>
       </c>
@@ -15789,7 +15789,7 @@
         <v>177.401903607241</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
         <v>2</v>
       </c>
@@ -17063,7 +17063,7 @@
         <v>254.622696418677</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
         <v>33</v>
       </c>
@@ -17161,7 +17161,7 @@
         <v>233.947128811549</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="n">
         <v>12</v>
       </c>
@@ -17259,7 +17259,7 @@
         <v>166.42941926702</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
         <v>0</v>
       </c>
@@ -17357,7 +17357,7 @@
         <v>171.169219519409</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
         <v>98</v>
       </c>
@@ -17455,7 +17455,7 @@
         <v>697.279322194967</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
         <v>39</v>
       </c>
@@ -17553,7 +17553,7 @@
         <v>679.453616871101</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="n">
         <v>5</v>
       </c>
@@ -17651,7 +17651,7 @@
         <v>692.959677894369</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="n">
         <v>90</v>
       </c>
@@ -17749,7 +17749,7 @@
         <v>669.980578265833</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="n">
         <v>87</v>
       </c>
@@ -17847,7 +17847,7 @@
         <v>679.624042781049</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="n">
         <v>83</v>
       </c>
@@ -17945,7 +17945,7 @@
         <v>645.099298503812</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="n">
         <v>47</v>
       </c>
@@ -18043,7 +18043,7 @@
         <v>296.669579729219</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="n">
         <v>61</v>
       </c>
@@ -18141,7 +18141,7 @@
         <v>287.270562213523</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="n">
         <v>13</v>
       </c>
@@ -18239,7 +18239,7 @@
         <v>287.396668806027</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="n">
         <v>57</v>
       </c>
@@ -18337,7 +18337,7 @@
         <v>266.355443151199</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="n">
         <v>99</v>
       </c>
@@ -18435,7 +18435,7 @@
         <v>273.309423865269</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="n">
         <v>104</v>
       </c>
@@ -18533,7 +18533,7 @@
         <v>238.687508445675</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="n">
         <v>29</v>
       </c>
@@ -18631,7 +18631,7 @@
         <v>78.5539976437171</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="n">
         <v>19</v>
       </c>
@@ -18729,7 +18729,7 @@
         <v>62.3199565862291</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="n">
         <v>17</v>
       </c>
@@ -20003,7 +20003,7 @@
         <v>127.282913480891</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="n">
         <v>31</v>
       </c>
@@ -20101,7 +20101,7 @@
         <v>126.321751997165</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="n">
         <v>22</v>
       </c>
@@ -20199,7 +20199,7 @@
         <v>107.487829721652</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="n">
         <v>27</v>
       </c>
@@ -20297,7 +20297,7 @@
         <v>121.366165023947</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="n">
         <v>41</v>
       </c>
@@ -20395,7 +20395,7 @@
         <v>400.953871819383</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="n">
         <v>81</v>
       </c>
@@ -20493,7 +20493,7 @@
         <v>391.192232464174</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="n">
         <v>24</v>
       </c>
@@ -20591,7 +20591,7 @@
         <v>398.890121954486</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="n">
         <v>65</v>
       </c>
@@ -20689,7 +20689,7 @@
         <v>386.234465987298</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="n">
         <v>85</v>
       </c>
@@ -20787,7 +20787,7 @@
         <v>391.697342992791</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="n">
         <v>52</v>
       </c>
@@ -20885,7 +20885,7 @@
         <v>372.95511269471</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="n">
         <v>69</v>
       </c>
@@ -20983,7 +20983,7 @@
         <v>209.38133441603</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="n">
         <v>74</v>
       </c>
@@ -21081,7 +21081,7 @@
         <v>203.819341199442</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="n">
         <v>21</v>
       </c>
@@ -21179,7 +21179,7 @@
         <v>204.184549093575</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="n">
         <v>49</v>
       </c>
@@ -21277,7 +21277,7 @@
         <v>191.162041053614</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="n">
         <v>53</v>
       </c>
@@ -21375,7 +21375,7 @@
         <v>195.46425157114</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="n">
         <v>102</v>
       </c>
@@ -21474,7 +21474,21 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AF106"/>
+  <autoFilter ref="A1:AF106">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="2035"/>
+        <filter val="2050"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Multifamilyconventional C2G"/>
+        <filter val="Singlefamilyconventional C2G"/>
+        <filter val="tiny house C2G"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
